--- a/BackTest/2020-01-11 BackTest ELF.xlsx
+++ b/BackTest/2020-01-11 BackTest ELF.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N107"/>
+  <dimension ref="A1:M107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>31993.73799483492</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,19 @@
         <v>31993.73799483492</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="J3" t="n">
         <v>63</v>
       </c>
-      <c r="K3" t="n">
-        <v>63</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,24 +521,23 @@
         <v>17369.77739483492</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>63</v>
-      </c>
-      <c r="L4" t="inlineStr">
+        <v>63</v>
+      </c>
+      <c r="J4" t="n">
+        <v>63</v>
+      </c>
+      <c r="K4" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -574,26 +562,23 @@
         <v>17329.45489483492</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>62.99</v>
       </c>
       <c r="J5" t="n">
-        <v>62.99</v>
-      </c>
-      <c r="K5" t="n">
-        <v>63</v>
-      </c>
-      <c r="L5" t="inlineStr">
+        <v>63</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -618,24 +603,23 @@
         <v>17031.09459483492</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>63</v>
-      </c>
-      <c r="L6" t="inlineStr">
+        <v>62.2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>63</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -660,26 +644,23 @@
         <v>27032.68214841485</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="J7" t="n">
-        <v>62</v>
-      </c>
-      <c r="K7" t="n">
-        <v>63</v>
-      </c>
-      <c r="L7" t="inlineStr">
+        <v>63</v>
+      </c>
+      <c r="K7" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -704,24 +685,23 @@
         <v>24173.23754841485</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>63</v>
-      </c>
-      <c r="L8" t="inlineStr">
+        <v>62.99</v>
+      </c>
+      <c r="J8" t="n">
+        <v>63</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -746,26 +726,23 @@
         <v>14171.64994841485</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="J9" t="n">
-        <v>62</v>
-      </c>
-      <c r="K9" t="n">
-        <v>63</v>
-      </c>
-      <c r="L9" t="inlineStr">
+        <v>63</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -790,26 +767,23 @@
         <v>15022.97244841485</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>61.6</v>
       </c>
       <c r="J10" t="n">
-        <v>61.6</v>
-      </c>
-      <c r="K10" t="n">
-        <v>63</v>
-      </c>
-      <c r="L10" t="inlineStr">
+        <v>63</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -834,26 +808,23 @@
         <v>14729.93494841485</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>62.8</v>
       </c>
       <c r="J11" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="K11" t="n">
-        <v>63</v>
-      </c>
-      <c r="L11" t="inlineStr">
+        <v>63</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -878,26 +849,21 @@
         <v>45811.93494841486</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>61.8</v>
-      </c>
-      <c r="K12" t="n">
-        <v>63</v>
-      </c>
-      <c r="L12" t="inlineStr">
+        <v>63</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -922,26 +888,23 @@
         <v>45771.61244841485</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="J13" t="n">
         <v>63</v>
       </c>
-      <c r="K13" t="n">
-        <v>63</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -966,26 +929,21 @@
         <v>29905.89954841485</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>62.18</v>
-      </c>
-      <c r="K14" t="n">
-        <v>63</v>
-      </c>
-      <c r="L14" t="inlineStr">
+        <v>63</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1010,26 +968,21 @@
         <v>29946.22204841485</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>61.82</v>
-      </c>
-      <c r="K15" t="n">
-        <v>63</v>
-      </c>
-      <c r="L15" t="inlineStr">
+        <v>63</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1054,26 +1007,21 @@
         <v>29330.03724841485</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>62</v>
-      </c>
-      <c r="K16" t="n">
-        <v>63</v>
-      </c>
-      <c r="L16" t="inlineStr">
+        <v>63</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1098,26 +1046,23 @@
         <v>29330.03724841485</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>61.8</v>
       </c>
       <c r="J17" t="n">
-        <v>61.8</v>
-      </c>
-      <c r="K17" t="n">
-        <v>63</v>
-      </c>
-      <c r="L17" t="inlineStr">
+        <v>63</v>
+      </c>
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1142,26 +1087,21 @@
         <v>29864.19744841485</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>61.8</v>
-      </c>
-      <c r="K18" t="n">
-        <v>63</v>
-      </c>
-      <c r="L18" t="inlineStr">
+        <v>63</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1186,26 +1126,23 @@
         <v>29864.19744841485</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>61.85</v>
       </c>
       <c r="J19" t="n">
-        <v>61.85</v>
-      </c>
-      <c r="K19" t="n">
-        <v>63</v>
-      </c>
-      <c r="L19" t="inlineStr">
+        <v>63</v>
+      </c>
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1230,26 +1167,23 @@
         <v>37738.64014841485</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>61.85</v>
       </c>
       <c r="J20" t="n">
-        <v>61.85</v>
-      </c>
-      <c r="K20" t="n">
-        <v>63</v>
-      </c>
-      <c r="L20" t="inlineStr">
+        <v>63</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1274,26 +1208,23 @@
         <v>37738.64014841485</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>61.89</v>
       </c>
       <c r="J21" t="n">
-        <v>61.89</v>
-      </c>
-      <c r="K21" t="n">
-        <v>63</v>
-      </c>
-      <c r="L21" t="inlineStr">
+        <v>63</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1318,26 +1249,21 @@
         <v>63703.96074841485</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>61.89</v>
-      </c>
-      <c r="K22" t="n">
-        <v>63</v>
-      </c>
-      <c r="L22" t="inlineStr">
+        <v>63</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1362,26 +1288,21 @@
         <v>72457.96074841486</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="K23" t="n">
-        <v>63</v>
-      </c>
-      <c r="L23" t="inlineStr">
+        <v>63</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1408,22 +1329,19 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>63</v>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>63</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1450,22 +1368,19 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>63</v>
-      </c>
-      <c r="L25" t="inlineStr">
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>63</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1490,24 +1405,21 @@
         <v>80196.91446893736</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>63</v>
-      </c>
-      <c r="L26" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>63</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1532,24 +1444,21 @@
         <v>80196.91446893736</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>63</v>
-      </c>
-      <c r="L27" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>63</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1576,22 +1485,19 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>63</v>
-      </c>
-      <c r="L28" t="inlineStr">
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>63</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1618,22 +1524,19 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>63</v>
-      </c>
-      <c r="L29" t="inlineStr">
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>63</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1660,22 +1563,19 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>63</v>
-      </c>
-      <c r="L30" t="inlineStr">
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>63</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1702,22 +1602,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>63</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>63</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1744,22 +1641,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>63</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>63</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1786,22 +1680,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>63</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>63</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1828,22 +1719,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>63</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>63</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1870,22 +1758,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>63</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>63</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1912,22 +1797,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>63</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>63</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1954,22 +1836,19 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>63</v>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>63</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1996,22 +1875,19 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>63</v>
-      </c>
-      <c r="L38" t="inlineStr">
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>63</v>
+      </c>
+      <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2038,22 +1914,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>63</v>
-      </c>
-      <c r="L39" t="inlineStr">
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>63</v>
+      </c>
+      <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2080,22 +1953,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>63</v>
-      </c>
-      <c r="L40" t="inlineStr">
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>63</v>
+      </c>
+      <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2122,22 +1992,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>63</v>
-      </c>
-      <c r="L41" t="inlineStr">
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>63</v>
+      </c>
+      <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2164,22 +2031,19 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>63</v>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>63</v>
+      </c>
+      <c r="K42" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2206,22 +2070,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>63</v>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>63</v>
+      </c>
+      <c r="K43" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2248,22 +2109,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>63</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>63</v>
+      </c>
+      <c r="K44" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2288,24 +2146,23 @@
         <v>505989.9713073698</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>63</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>63</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1.051825396825397</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+        <v>1.016129032258065</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2330,24 +2187,15 @@
         <v>484491.1511073698</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>63</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2372,24 +2220,15 @@
         <v>484491.1511073698</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>63</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2414,24 +2253,15 @@
         <v>481655.4267073698</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>63</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2456,24 +2286,15 @@
         <v>494439.0991073698</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>63</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2498,24 +2319,15 @@
         <v>541728.6234073698</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>63</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2540,24 +2352,15 @@
         <v>542000.8234073698</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>63</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2582,24 +2385,15 @@
         <v>527437.5145073698</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>63</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1.03531746031746</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2626,16 +2420,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2662,16 +2453,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2698,16 +2486,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2734,16 +2519,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2768,18 +2550,15 @@
         <v>516672.9104073698</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2804,18 +2583,15 @@
         <v>494385.3437073698</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2840,18 +2616,15 @@
         <v>520449.6358073698</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2878,16 +2651,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>1</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2914,16 +2684,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>1</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2950,16 +2717,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>1</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2986,16 +2750,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3020,18 +2781,15 @@
         <v>507882.5444073699</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3058,16 +2816,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3094,16 +2849,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3130,16 +2882,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3166,16 +2915,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3202,16 +2948,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3238,16 +2981,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3274,16 +3014,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3308,18 +3045,15 @@
         <v>444961.3684073699</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3346,16 +3080,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3382,16 +3113,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3418,16 +3146,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3454,16 +3179,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3490,16 +3212,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3526,16 +3245,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3562,16 +3278,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3598,16 +3311,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3634,16 +3344,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3670,16 +3377,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3706,16 +3410,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3740,18 +3441,15 @@
         <v>420490.8808073699</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3778,16 +3476,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3814,16 +3509,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3850,16 +3542,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3886,16 +3575,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3922,16 +3608,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3958,16 +3641,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3994,16 +3674,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4030,16 +3707,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4066,16 +3740,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4102,16 +3773,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4138,16 +3806,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4174,16 +3839,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4210,16 +3872,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4246,16 +3905,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4282,16 +3938,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4316,18 +3969,15 @@
         <v>443022.8116073699</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4354,16 +4004,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4390,16 +4037,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4426,16 +4070,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4462,16 +4103,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4498,16 +4136,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4534,16 +4169,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4570,18 +4202,15 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest ELF.xlsx
+++ b/BackTest/2020-01-11 BackTest ELF.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>31993.73799483492</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>31993.73799483492</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>63</v>
@@ -521,7 +521,7 @@
         <v>17369.77739483492</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>63</v>
@@ -562,7 +562,7 @@
         <v>17329.45489483492</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>62.99</v>
@@ -603,7 +603,7 @@
         <v>17031.09459483492</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>62.2</v>
@@ -644,7 +644,7 @@
         <v>27032.68214841485</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>62</v>
@@ -685,7 +685,7 @@
         <v>24173.23754841485</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>62.99</v>
@@ -726,7 +726,7 @@
         <v>14171.64994841485</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>62</v>
@@ -767,7 +767,7 @@
         <v>15022.97244841485</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>61.6</v>
@@ -808,11 +808,9 @@
         <v>14729.93494841485</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>62.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
         <v>63</v>
       </c>
@@ -849,9 +847,11 @@
         <v>45811.93494841486</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>61.8</v>
+      </c>
       <c r="J12" t="n">
         <v>63</v>
       </c>
@@ -888,7 +888,7 @@
         <v>45771.61244841485</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>63</v>
@@ -929,9 +929,11 @@
         <v>29905.89954841485</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>62.18</v>
+      </c>
       <c r="J14" t="n">
         <v>63</v>
       </c>
@@ -968,9 +970,11 @@
         <v>29946.22204841485</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>61.82</v>
+      </c>
       <c r="J15" t="n">
         <v>63</v>
       </c>
@@ -1007,9 +1011,11 @@
         <v>29330.03724841485</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>62</v>
+      </c>
       <c r="J16" t="n">
         <v>63</v>
       </c>
@@ -1046,7 +1052,7 @@
         <v>29330.03724841485</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>61.8</v>
@@ -1087,9 +1093,11 @@
         <v>29864.19744841485</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>61.8</v>
+      </c>
       <c r="J18" t="n">
         <v>63</v>
       </c>
@@ -1126,7 +1134,7 @@
         <v>29864.19744841485</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>61.85</v>
@@ -1167,7 +1175,7 @@
         <v>37738.64014841485</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>61.85</v>
@@ -1208,7 +1216,7 @@
         <v>37738.64014841485</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>61.89</v>
@@ -1249,9 +1257,11 @@
         <v>63703.96074841485</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>61.89</v>
+      </c>
       <c r="J22" t="n">
         <v>63</v>
       </c>
@@ -1288,9 +1298,11 @@
         <v>72457.96074841486</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>62.9</v>
+      </c>
       <c r="J23" t="n">
         <v>63</v>
       </c>
@@ -1327,9 +1339,11 @@
         <v>80643.72416893736</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>63.48</v>
+      </c>
       <c r="J24" t="n">
         <v>63</v>
       </c>
@@ -1366,9 +1380,11 @@
         <v>80176.91446893736</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>63.54</v>
+      </c>
       <c r="J25" t="n">
         <v>63</v>
       </c>
@@ -1407,7 +1423,9 @@
       <c r="H26" t="n">
         <v>1</v>
       </c>
-      <c r="I26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>62.7</v>
+      </c>
       <c r="J26" t="n">
         <v>63</v>
       </c>
@@ -1446,7 +1464,9 @@
       <c r="H27" t="n">
         <v>1</v>
       </c>
-      <c r="I27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>63</v>
+      </c>
       <c r="J27" t="n">
         <v>63</v>
       </c>
@@ -1483,9 +1503,11 @@
         <v>81132.30596893736</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>63</v>
+      </c>
       <c r="J28" t="n">
         <v>63</v>
       </c>
@@ -1522,9 +1544,11 @@
         <v>106827.5749484149</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>63.39</v>
+      </c>
       <c r="J29" t="n">
         <v>63</v>
       </c>
@@ -1561,9 +1585,11 @@
         <v>90242.94652789236</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>63.54</v>
+      </c>
       <c r="J30" t="n">
         <v>63</v>
       </c>
@@ -1600,9 +1626,11 @@
         <v>90242.94652789236</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>63.5</v>
+      </c>
       <c r="J31" t="n">
         <v>63</v>
       </c>
@@ -1639,9 +1667,11 @@
         <v>149351.5503073698</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>63.5</v>
+      </c>
       <c r="J32" t="n">
         <v>63</v>
       </c>
@@ -1678,9 +1708,11 @@
         <v>178331.8490073698</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>64.25</v>
+      </c>
       <c r="J33" t="n">
         <v>63</v>
       </c>
@@ -1717,9 +1749,11 @@
         <v>203400.7758073698</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>64.29000000000001</v>
+      </c>
       <c r="J34" t="n">
         <v>63</v>
       </c>
@@ -1756,9 +1790,11 @@
         <v>214944.9518073699</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>64.45999999999999</v>
+      </c>
       <c r="J35" t="n">
         <v>63</v>
       </c>
@@ -1795,9 +1831,11 @@
         <v>214944.9518073699</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>64.5</v>
+      </c>
       <c r="J36" t="n">
         <v>63</v>
       </c>
@@ -1834,9 +1872,11 @@
         <v>223687.8165073699</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>64.5</v>
+      </c>
       <c r="J37" t="n">
         <v>63</v>
       </c>
@@ -1873,9 +1913,11 @@
         <v>223687.8165073699</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>64.56999999999999</v>
+      </c>
       <c r="J38" t="n">
         <v>63</v>
       </c>
@@ -1912,9 +1954,11 @@
         <v>223825.4463073699</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>64.56999999999999</v>
+      </c>
       <c r="J39" t="n">
         <v>63</v>
       </c>
@@ -1951,9 +1995,11 @@
         <v>268691.1996073698</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>64.77</v>
+      </c>
       <c r="J40" t="n">
         <v>63</v>
       </c>
@@ -2146,7 +2192,7 @@
         <v>505989.9713073698</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
@@ -2154,15 +2200,13 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.051825396825397</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.016129032258065</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2187,11 +2231,17 @@
         <v>484491.1511073698</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>63</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2220,11 +2270,17 @@
         <v>484491.1511073698</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>63</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2253,11 +2309,17 @@
         <v>481655.4267073698</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>63</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2286,11 +2348,17 @@
         <v>494439.0991073698</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>63</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2319,11 +2387,17 @@
         <v>541728.6234073698</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>63</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2352,11 +2426,17 @@
         <v>542000.8234073698</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>63</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2385,11 +2465,17 @@
         <v>527437.5145073698</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>63</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2421,8 +2507,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>63</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2454,8 +2546,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>63</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2487,8 +2585,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>63</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2520,8 +2624,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>63</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2550,11 +2660,17 @@
         <v>516672.9104073698</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>63</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2583,11 +2699,17 @@
         <v>494385.3437073698</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>63</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2616,11 +2738,17 @@
         <v>520449.6358073698</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>63</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2652,8 +2780,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>63</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2682,13 +2816,19 @@
         <v>517503.2799073699</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>63</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L61" t="n">
-        <v>1</v>
+        <v>1.033095238095238</v>
       </c>
       <c r="M61" t="inlineStr"/>
     </row>
@@ -2715,7 +2855,7 @@
         <v>517503.2799073699</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2748,7 +2888,7 @@
         <v>517521.2799073699</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2781,7 +2921,7 @@
         <v>507882.5444073699</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2814,7 +2954,7 @@
         <v>507882.5444073699</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2847,7 +2987,7 @@
         <v>483407.6620073699</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2880,7 +3020,7 @@
         <v>478242.0453073698</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2913,7 +3053,7 @@
         <v>502387.8680073699</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2946,7 +3086,7 @@
         <v>502387.8680073699</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2979,7 +3119,7 @@
         <v>431945.3369073699</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3012,7 +3152,7 @@
         <v>446583.3093073699</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3045,7 +3185,7 @@
         <v>444961.3684073699</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3078,7 +3218,7 @@
         <v>450306.15060737</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3111,7 +3251,7 @@
         <v>440023.6540073699</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3144,7 +3284,7 @@
         <v>447255.6540073699</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3177,7 +3317,7 @@
         <v>438655.2687073699</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3210,7 +3350,7 @@
         <v>443434.7025073699</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3243,7 +3383,7 @@
         <v>432992.9920073699</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3276,7 +3416,7 @@
         <v>448146.6176073699</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3309,7 +3449,7 @@
         <v>435155.6502073699</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3342,7 +3482,7 @@
         <v>427872.4209073699</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3375,7 +3515,7 @@
         <v>420071.7457073699</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3408,7 +3548,7 @@
         <v>421174.9918073699</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3441,7 +3581,7 @@
         <v>420490.8808073699</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3474,7 +3614,7 @@
         <v>415490.8808073699</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3507,7 +3647,7 @@
         <v>415510.8808073699</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3540,7 +3680,7 @@
         <v>409785.5332073699</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3606,7 +3746,7 @@
         <v>410120.8063073699</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3639,7 +3779,7 @@
         <v>448860.3069073699</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3672,7 +3812,7 @@
         <v>448860.3069073699</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3705,7 +3845,7 @@
         <v>448860.3069073699</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3969,7 +4109,7 @@
         <v>443022.8116073699</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4035,7 +4175,7 @@
         <v>443022.8116073699</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4068,7 +4208,7 @@
         <v>443022.8116073699</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4101,7 +4241,7 @@
         <v>444522.8116073699</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4134,7 +4274,7 @@
         <v>444522.8116073699</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4167,7 +4307,7 @@
         <v>444522.8116073699</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4200,7 +4340,7 @@
         <v>444522.8116073699</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4211,6 +4351,6 @@
       <c r="M107" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest ELF.xlsx
+++ b/BackTest/2020-01-11 BackTest ELF.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>31993.73799483492</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -521,11 +521,9 @@
         <v>17369.77739483492</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>63</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
         <v>63</v>
       </c>
@@ -562,11 +560,9 @@
         <v>17329.45489483492</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>62.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>63</v>
       </c>
@@ -603,11 +599,9 @@
         <v>17031.09459483492</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>62.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
         <v>63</v>
       </c>
@@ -644,11 +638,9 @@
         <v>27032.68214841485</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
         <v>63</v>
       </c>
@@ -685,11 +677,9 @@
         <v>24173.23754841485</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>62.99</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>63</v>
       </c>
@@ -726,11 +716,9 @@
         <v>14171.64994841485</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
         <v>63</v>
       </c>
@@ -767,11 +755,9 @@
         <v>15022.97244841485</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>61.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
         <v>63</v>
       </c>
@@ -847,11 +833,9 @@
         <v>45811.93494841486</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>61.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
         <v>63</v>
       </c>
@@ -888,11 +872,9 @@
         <v>45771.61244841485</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>63</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
         <v>63</v>
       </c>
@@ -929,11 +911,9 @@
         <v>29905.89954841485</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>62.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
         <v>63</v>
       </c>
@@ -1011,11 +991,9 @@
         <v>29330.03724841485</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
         <v>63</v>
       </c>
@@ -1052,11 +1030,9 @@
         <v>29330.03724841485</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>61.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
         <v>63</v>
       </c>
@@ -1093,11 +1069,9 @@
         <v>29864.19744841485</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>61.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
         <v>63</v>
       </c>
@@ -1134,11 +1108,9 @@
         <v>29864.19744841485</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>61.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>63</v>
       </c>
@@ -1175,11 +1147,9 @@
         <v>37738.64014841485</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>61.85</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>63</v>
       </c>
@@ -1216,11 +1186,9 @@
         <v>37738.64014841485</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>61.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>63</v>
       </c>
@@ -1257,11 +1225,9 @@
         <v>63703.96074841485</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>61.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>63</v>
       </c>
@@ -1298,11 +1264,9 @@
         <v>72457.96074841486</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>62.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>63</v>
       </c>
@@ -1339,21 +1303,19 @@
         <v>80643.72416893736</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>63.48</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>63</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>1.003571428571429</v>
       </c>
       <c r="M24" t="inlineStr"/>
     </row>
@@ -1380,19 +1342,11 @@
         <v>80176.91446893736</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>63.54</v>
-      </c>
-      <c r="J25" t="n">
-        <v>63</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1421,19 +1375,11 @@
         <v>80196.91446893736</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>62.7</v>
-      </c>
-      <c r="J26" t="n">
-        <v>63</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1462,19 +1408,11 @@
         <v>80196.91446893736</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>63</v>
-      </c>
-      <c r="J27" t="n">
-        <v>63</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1503,19 +1441,11 @@
         <v>81132.30596893736</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>63</v>
-      </c>
-      <c r="J28" t="n">
-        <v>63</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1544,19 +1474,11 @@
         <v>106827.5749484149</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>63.39</v>
-      </c>
-      <c r="J29" t="n">
-        <v>63</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1585,19 +1507,11 @@
         <v>90242.94652789236</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>63.54</v>
-      </c>
-      <c r="J30" t="n">
-        <v>63</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1626,19 +1540,11 @@
         <v>90242.94652789236</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="J31" t="n">
-        <v>63</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1667,19 +1573,11 @@
         <v>149351.5503073698</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>63.5</v>
-      </c>
-      <c r="J32" t="n">
-        <v>63</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1708,19 +1606,11 @@
         <v>178331.8490073698</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>64.25</v>
-      </c>
-      <c r="J33" t="n">
-        <v>63</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1749,19 +1639,11 @@
         <v>203400.7758073698</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>64.29000000000001</v>
-      </c>
-      <c r="J34" t="n">
-        <v>63</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1790,19 +1672,11 @@
         <v>214944.9518073699</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>64.45999999999999</v>
-      </c>
-      <c r="J35" t="n">
-        <v>63</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1831,19 +1705,11 @@
         <v>214944.9518073699</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="J36" t="n">
-        <v>63</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1872,19 +1738,11 @@
         <v>223687.8165073699</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>64.5</v>
-      </c>
-      <c r="J37" t="n">
-        <v>63</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1913,19 +1771,11 @@
         <v>223687.8165073699</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>64.56999999999999</v>
-      </c>
-      <c r="J38" t="n">
-        <v>63</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1954,19 +1804,11 @@
         <v>223825.4463073699</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>64.56999999999999</v>
-      </c>
-      <c r="J39" t="n">
-        <v>63</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1995,19 +1837,11 @@
         <v>268691.1996073698</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>64.77</v>
-      </c>
-      <c r="J40" t="n">
-        <v>63</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -2039,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>63</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2078,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>63</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2117,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>63</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2156,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>63</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2195,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>63</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2234,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>63</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2273,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>63</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2312,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>63</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2351,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>63</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2390,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>63</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2429,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>63</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2468,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>63</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2507,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>63</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2546,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>63</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2585,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>63</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2624,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>63</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2663,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>63</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2702,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>63</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2741,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>63</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2780,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>63</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2816,19 +2530,13 @@
         <v>517503.2799073699</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>63</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
-        <v>1.033095238095238</v>
+        <v>1</v>
       </c>
       <c r="M61" t="inlineStr"/>
     </row>
@@ -2855,7 +2563,7 @@
         <v>517503.2799073699</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2888,7 +2596,7 @@
         <v>517521.2799073699</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2921,7 +2629,7 @@
         <v>507882.5444073699</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2954,7 +2662,7 @@
         <v>507882.5444073699</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2987,7 +2695,7 @@
         <v>483407.6620073699</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -3020,7 +2728,7 @@
         <v>478242.0453073698</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -3053,7 +2761,7 @@
         <v>502387.8680073699</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -3086,7 +2794,7 @@
         <v>502387.8680073699</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3119,7 +2827,7 @@
         <v>431945.3369073699</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3152,7 +2860,7 @@
         <v>446583.3093073699</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3185,7 +2893,7 @@
         <v>444961.3684073699</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3218,7 +2926,7 @@
         <v>450306.15060737</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3251,7 +2959,7 @@
         <v>440023.6540073699</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -3284,7 +2992,7 @@
         <v>447255.6540073699</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3317,7 +3025,7 @@
         <v>438655.2687073699</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -3350,7 +3058,7 @@
         <v>443434.7025073699</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -3383,7 +3091,7 @@
         <v>432992.9920073699</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3416,7 +3124,7 @@
         <v>448146.6176073699</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3449,7 +3157,7 @@
         <v>435155.6502073699</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3482,7 +3190,7 @@
         <v>427872.4209073699</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3515,7 +3223,7 @@
         <v>420071.7457073699</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3548,7 +3256,7 @@
         <v>421174.9918073699</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3581,7 +3289,7 @@
         <v>420490.8808073699</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3614,7 +3322,7 @@
         <v>415490.8808073699</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3647,7 +3355,7 @@
         <v>415510.8808073699</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3680,7 +3388,7 @@
         <v>409785.5332073699</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3746,7 +3454,7 @@
         <v>410120.8063073699</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3779,7 +3487,7 @@
         <v>448860.3069073699</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3812,7 +3520,7 @@
         <v>448860.3069073699</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3845,7 +3553,7 @@
         <v>448860.3069073699</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -4109,7 +3817,7 @@
         <v>443022.8116073699</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4175,7 +3883,7 @@
         <v>443022.8116073699</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -4208,7 +3916,7 @@
         <v>443022.8116073699</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4241,7 +3949,7 @@
         <v>444522.8116073699</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -4274,7 +3982,7 @@
         <v>444522.8116073699</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4307,7 +4015,7 @@
         <v>444522.8116073699</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4340,7 +4048,7 @@
         <v>444522.8116073699</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4351,6 +4059,6 @@
       <c r="M107" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-11 BackTest ELF.xlsx
+++ b/BackTest/2020-01-11 BackTest ELF.xlsx
@@ -451,7 +451,7 @@
         <v>31993.73799483492</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -521,7 +521,7 @@
         <v>17369.77739483492</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
@@ -560,9 +560,11 @@
         <v>17329.45489483492</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>62.99</v>
+      </c>
       <c r="J5" t="n">
         <v>63</v>
       </c>
@@ -599,9 +601,11 @@
         <v>17031.09459483492</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>62.2</v>
+      </c>
       <c r="J6" t="n">
         <v>63</v>
       </c>
@@ -638,9 +642,11 @@
         <v>27032.68214841485</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>62</v>
+      </c>
       <c r="J7" t="n">
         <v>63</v>
       </c>
@@ -716,9 +722,11 @@
         <v>14171.64994841485</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>62</v>
+      </c>
       <c r="J9" t="n">
         <v>63</v>
       </c>
@@ -755,9 +763,11 @@
         <v>15022.97244841485</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>61.6</v>
+      </c>
       <c r="J10" t="n">
         <v>63</v>
       </c>
@@ -794,9 +804,11 @@
         <v>14729.93494841485</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>62.8</v>
+      </c>
       <c r="J11" t="n">
         <v>63</v>
       </c>
@@ -950,11 +962,9 @@
         <v>29946.22204841485</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>61.82</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>63</v>
       </c>
@@ -1030,9 +1040,11 @@
         <v>29330.03724841485</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>61.8</v>
+      </c>
       <c r="J17" t="n">
         <v>63</v>
       </c>
@@ -1069,9 +1081,11 @@
         <v>29864.19744841485</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>61.8</v>
+      </c>
       <c r="J18" t="n">
         <v>63</v>
       </c>
@@ -1303,7 +1317,7 @@
         <v>80643.72416893736</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
@@ -1311,11 +1325,11 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.003571428571429</v>
+        <v>1</v>
       </c>
       <c r="M24" t="inlineStr"/>
     </row>
@@ -1345,8 +1359,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>63</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1375,11 +1395,17 @@
         <v>80196.91446893736</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>63</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1434,17 @@
         <v>80196.91446893736</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>63</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1473,17 @@
         <v>81132.30596893736</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>63</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1512,17 @@
         <v>106827.5749484149</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>63</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1551,17 @@
         <v>90242.94652789236</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>63</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1590,17 @@
         <v>90242.94652789236</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>63</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1573,11 +1629,17 @@
         <v>149351.5503073698</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>63</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1606,11 +1668,17 @@
         <v>178331.8490073698</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>63</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1707,17 @@
         <v>203400.7758073698</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>63</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1746,17 @@
         <v>214944.9518073699</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>63</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1785,17 @@
         <v>214944.9518073699</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>63</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1824,17 @@
         <v>223687.8165073699</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>63</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +1866,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>63</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +1905,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>63</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +1944,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>63</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +1983,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>63</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2022,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>63</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2061,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>63</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2100,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>63</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2139,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>63</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2178,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>63</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2217,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>63</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2256,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>63</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2295,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>63</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2334,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>63</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2373,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>63</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2233,13 +2409,19 @@
         <v>527437.5145073698</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>63</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L52" t="n">
-        <v>1</v>
+        <v>1.03531746031746</v>
       </c>
       <c r="M52" t="inlineStr"/>
     </row>
@@ -2266,7 +2448,7 @@
         <v>535760.2153073698</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2299,7 +2481,7 @@
         <v>535781.4653073698</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2332,7 +2514,7 @@
         <v>540232.4019073698</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2365,7 +2547,7 @@
         <v>508356.9021073699</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2398,7 +2580,7 @@
         <v>516672.9104073698</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2431,7 +2613,7 @@
         <v>494385.3437073698</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2464,7 +2646,7 @@
         <v>520449.6358073698</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2497,7 +2679,7 @@
         <v>532307.2109073699</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2530,7 +2712,7 @@
         <v>517503.2799073699</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2563,7 +2745,7 @@
         <v>517503.2799073699</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2596,7 +2778,7 @@
         <v>517521.2799073699</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2629,7 +2811,7 @@
         <v>507882.5444073699</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2662,7 +2844,7 @@
         <v>507882.5444073699</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2695,7 +2877,7 @@
         <v>483407.6620073699</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2728,7 +2910,7 @@
         <v>478242.0453073698</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2761,7 +2943,7 @@
         <v>502387.8680073699</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2794,7 +2976,7 @@
         <v>502387.8680073699</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2827,7 +3009,7 @@
         <v>431945.3369073699</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2860,7 +3042,7 @@
         <v>446583.3093073699</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>

--- a/BackTest/2020-01-11 BackTest ELF.xlsx
+++ b/BackTest/2020-01-11 BackTest ELF.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:L107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>9372.9486</v>
       </c>
       <c r="G2" t="n">
-        <v>31993.73799483492</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>3296.5229</v>
       </c>
       <c r="G3" t="n">
-        <v>31993.73799483492</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="I3" t="n">
         <v>63</v>
       </c>
-      <c r="J3" t="n">
-        <v>63</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,24 +507,21 @@
         <v>14623.9606</v>
       </c>
       <c r="G4" t="n">
-        <v>17369.77739483492</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>63</v>
-      </c>
-      <c r="K4" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>63</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -557,26 +543,23 @@
         <v>40.3225</v>
       </c>
       <c r="G5" t="n">
-        <v>17329.45489483492</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>62.99</v>
       </c>
       <c r="I5" t="n">
-        <v>62.99</v>
-      </c>
-      <c r="J5" t="n">
-        <v>63</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+        <v>63</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,26 +581,23 @@
         <v>298.3603</v>
       </c>
       <c r="G6" t="n">
-        <v>17031.09459483492</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>62.2</v>
       </c>
       <c r="I6" t="n">
-        <v>62.2</v>
-      </c>
-      <c r="J6" t="n">
-        <v>63</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>63</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -639,26 +619,23 @@
         <v>10001.58755357993</v>
       </c>
       <c r="G7" t="n">
-        <v>27032.68214841485</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="I7" t="n">
-        <v>62</v>
-      </c>
-      <c r="J7" t="n">
-        <v>63</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>63</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -680,24 +657,21 @@
         <v>2859.4446</v>
       </c>
       <c r="G8" t="n">
-        <v>24173.23754841485</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>63</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>63</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -719,26 +693,21 @@
         <v>10001.5876</v>
       </c>
       <c r="G9" t="n">
-        <v>14171.64994841485</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
-        <v>62</v>
-      </c>
-      <c r="J9" t="n">
-        <v>63</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>63</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -760,26 +729,21 @@
         <v>851.3225</v>
       </c>
       <c r="G10" t="n">
-        <v>15022.97244841485</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
-        <v>61.6</v>
-      </c>
-      <c r="J10" t="n">
-        <v>63</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>63</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -801,26 +765,21 @@
         <v>293.0375</v>
       </c>
       <c r="G11" t="n">
-        <v>14729.93494841485</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
-        <v>62.8</v>
-      </c>
-      <c r="J11" t="n">
-        <v>63</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>63</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -842,24 +801,21 @@
         <v>31082</v>
       </c>
       <c r="G12" t="n">
-        <v>45811.93494841486</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>63</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>63</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -881,24 +837,21 @@
         <v>40.3225</v>
       </c>
       <c r="G13" t="n">
-        <v>45771.61244841485</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>63</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>63</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -920,24 +873,21 @@
         <v>15865.7129</v>
       </c>
       <c r="G14" t="n">
-        <v>29905.89954841485</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>63</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>63</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -959,24 +909,21 @@
         <v>40.3225</v>
       </c>
       <c r="G15" t="n">
-        <v>29946.22204841485</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>63</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>63</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -998,24 +945,21 @@
         <v>616.1848</v>
       </c>
       <c r="G16" t="n">
-        <v>29330.03724841485</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>63</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>63</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1037,26 +981,23 @@
         <v>466.8097</v>
       </c>
       <c r="G17" t="n">
-        <v>29330.03724841485</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>61.8</v>
       </c>
       <c r="I17" t="n">
-        <v>61.8</v>
-      </c>
-      <c r="J17" t="n">
-        <v>63</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>63</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1078,26 +1019,21 @@
         <v>534.1602</v>
       </c>
       <c r="G18" t="n">
-        <v>29864.19744841485</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>61.8</v>
-      </c>
-      <c r="J18" t="n">
-        <v>63</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>63</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1119,24 +1055,21 @@
         <v>2140.6865</v>
       </c>
       <c r="G19" t="n">
-        <v>29864.19744841485</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>63</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>63</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1158,24 +1091,21 @@
         <v>7874.4427</v>
       </c>
       <c r="G20" t="n">
-        <v>37738.64014841485</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>63</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>63</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1197,24 +1127,21 @@
         <v>7171.1514</v>
       </c>
       <c r="G21" t="n">
-        <v>37738.64014841485</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>63</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>63</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1236,24 +1163,21 @@
         <v>25965.3206</v>
       </c>
       <c r="G22" t="n">
-        <v>63703.96074841485</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>63</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>63</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1275,24 +1199,21 @@
         <v>8754</v>
       </c>
       <c r="G23" t="n">
-        <v>72457.96074841486</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>63</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>63</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1314,24 +1235,21 @@
         <v>8185.763420522506</v>
       </c>
       <c r="G24" t="n">
-        <v>80643.72416893736</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>63</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="n">
+        <v>63</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1353,24 +1271,21 @@
         <v>466.8097</v>
       </c>
       <c r="G25" t="n">
-        <v>80176.91446893736</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>63</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="n">
+        <v>63</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1392,24 +1307,23 @@
         <v>20</v>
       </c>
       <c r="G26" t="n">
-        <v>80196.91446893736</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>63</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+        <v>62.7</v>
+      </c>
+      <c r="I26" t="n">
+        <v>63</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1431,24 +1345,23 @@
         <v>3755.829</v>
       </c>
       <c r="G27" t="n">
-        <v>80196.91446893736</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>63</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+        <v>63</v>
+      </c>
+      <c r="I27" t="n">
+        <v>63</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1470,24 +1383,21 @@
         <v>935.3915</v>
       </c>
       <c r="G28" t="n">
-        <v>81132.30596893736</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>63</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>63</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1509,24 +1419,21 @@
         <v>25695.2689794775</v>
       </c>
       <c r="G29" t="n">
-        <v>106827.5749484149</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>63</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>63</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1548,24 +1455,21 @@
         <v>16584.62842052251</v>
       </c>
       <c r="G30" t="n">
-        <v>90242.94652789236</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>63</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>63</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1587,24 +1491,21 @@
         <v>7246.4838</v>
       </c>
       <c r="G31" t="n">
-        <v>90242.94652789236</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>63</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>63</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1626,24 +1527,21 @@
         <v>59108.6037794775</v>
       </c>
       <c r="G32" t="n">
-        <v>149351.5503073698</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>63</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>63</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1665,24 +1563,21 @@
         <v>28980.2987</v>
       </c>
       <c r="G33" t="n">
-        <v>178331.8490073698</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>63</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>63</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1704,24 +1599,21 @@
         <v>25068.9268</v>
       </c>
       <c r="G34" t="n">
-        <v>203400.7758073698</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>63</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>63</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1743,24 +1635,21 @@
         <v>11544.176</v>
       </c>
       <c r="G35" t="n">
-        <v>214944.9518073699</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>63</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>63</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1782,24 +1671,21 @@
         <v>10364.1109</v>
       </c>
       <c r="G36" t="n">
-        <v>214944.9518073699</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>63</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>63</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1821,24 +1707,21 @@
         <v>8742.8647</v>
       </c>
       <c r="G37" t="n">
-        <v>223687.8165073699</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>63</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>63</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1860,24 +1743,21 @@
         <v>360.4601</v>
       </c>
       <c r="G38" t="n">
-        <v>223687.8165073699</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>63</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>63</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1899,24 +1779,21 @@
         <v>137.6298</v>
       </c>
       <c r="G39" t="n">
-        <v>223825.4463073699</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>63</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>63</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1938,24 +1815,21 @@
         <v>44865.7533</v>
       </c>
       <c r="G40" t="n">
-        <v>268691.1996073698</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>63</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>63</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1977,24 +1851,21 @@
         <v>18062.8749</v>
       </c>
       <c r="G41" t="n">
-        <v>286754.0745073698</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>63</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="n">
+        <v>63</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2016,24 +1887,21 @@
         <v>15307.2034</v>
       </c>
       <c r="G42" t="n">
-        <v>302061.2779073698</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>63</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="n">
+        <v>63</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2055,24 +1923,21 @@
         <v>85275.8412</v>
       </c>
       <c r="G43" t="n">
-        <v>387337.1191073698</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>63</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="n">
+        <v>63</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2094,24 +1959,21 @@
         <v>54082.2206</v>
       </c>
       <c r="G44" t="n">
-        <v>441419.3397073698</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>63</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="n">
+        <v>63</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2133,24 +1995,21 @@
         <v>64570.6316</v>
       </c>
       <c r="G45" t="n">
-        <v>505989.9713073698</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>63</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="n">
+        <v>63</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2172,24 +2031,21 @@
         <v>21498.8202</v>
       </c>
       <c r="G46" t="n">
-        <v>484491.1511073698</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>63</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="n">
+        <v>63</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2211,24 +2067,21 @@
         <v>18503.89396992481</v>
       </c>
       <c r="G47" t="n">
-        <v>484491.1511073698</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>63</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="n">
+        <v>63</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2250,24 +2103,21 @@
         <v>2835.7244</v>
       </c>
       <c r="G48" t="n">
-        <v>481655.4267073698</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>63</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="n">
+        <v>63</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2289,24 +2139,21 @@
         <v>12783.6724</v>
       </c>
       <c r="G49" t="n">
-        <v>494439.0991073698</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>63</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="n">
+        <v>63</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2328,24 +2175,21 @@
         <v>47289.5243</v>
       </c>
       <c r="G50" t="n">
-        <v>541728.6234073698</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>63</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="n">
+        <v>63</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2367,24 +2211,21 @@
         <v>272.2</v>
       </c>
       <c r="G51" t="n">
-        <v>542000.8234073698</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>63</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="n">
+        <v>63</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2406,24 +2247,21 @@
         <v>14563.3089</v>
       </c>
       <c r="G52" t="n">
-        <v>527437.5145073698</v>
-      </c>
-      <c r="H52" t="n">
         <v>2</v>
       </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>63</v>
-      </c>
-      <c r="K52" t="inlineStr">
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="n">
+        <v>63</v>
+      </c>
+      <c r="J52" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L52" t="n">
+      <c r="K52" t="n">
         <v>1.03531746031746</v>
       </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2445,18 +2283,15 @@
         <v>8322.700800000001</v>
       </c>
       <c r="G53" t="n">
-        <v>535760.2153073698</v>
-      </c>
-      <c r="H53" t="n">
         <v>2</v>
       </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2478,18 +2313,15 @@
         <v>21.25</v>
       </c>
       <c r="G54" t="n">
-        <v>535781.4653073698</v>
-      </c>
-      <c r="H54" t="n">
         <v>2</v>
       </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2511,18 +2343,15 @@
         <v>4450.9366</v>
       </c>
       <c r="G55" t="n">
-        <v>540232.4019073698</v>
-      </c>
-      <c r="H55" t="n">
         <v>2</v>
       </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2544,18 +2373,15 @@
         <v>31875.4998</v>
       </c>
       <c r="G56" t="n">
-        <v>508356.9021073699</v>
-      </c>
-      <c r="H56" t="n">
         <v>2</v>
       </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2577,18 +2403,15 @@
         <v>8316.0083</v>
       </c>
       <c r="G57" t="n">
-        <v>516672.9104073698</v>
-      </c>
-      <c r="H57" t="n">
         <v>2</v>
       </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2610,18 +2433,15 @@
         <v>22287.5667</v>
       </c>
       <c r="G58" t="n">
-        <v>494385.3437073698</v>
-      </c>
-      <c r="H58" t="n">
         <v>2</v>
       </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2643,18 +2463,15 @@
         <v>26064.2921</v>
       </c>
       <c r="G59" t="n">
-        <v>520449.6358073698</v>
-      </c>
-      <c r="H59" t="n">
         <v>2</v>
       </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2676,18 +2493,15 @@
         <v>11857.5751</v>
       </c>
       <c r="G60" t="n">
-        <v>532307.2109073699</v>
-      </c>
-      <c r="H60" t="n">
         <v>2</v>
       </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2709,18 +2523,15 @@
         <v>14803.931</v>
       </c>
       <c r="G61" t="n">
-        <v>517503.2799073699</v>
-      </c>
-      <c r="H61" t="n">
         <v>2</v>
       </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2742,18 +2553,15 @@
         <v>36726.9309</v>
       </c>
       <c r="G62" t="n">
-        <v>517503.2799073699</v>
-      </c>
-      <c r="H62" t="n">
         <v>2</v>
       </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2775,18 +2583,15 @@
         <v>18</v>
       </c>
       <c r="G63" t="n">
-        <v>517521.2799073699</v>
-      </c>
-      <c r="H63" t="n">
         <v>2</v>
       </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2808,18 +2613,15 @@
         <v>9638.735500000001</v>
       </c>
       <c r="G64" t="n">
-        <v>507882.5444073699</v>
-      </c>
-      <c r="H64" t="n">
         <v>2</v>
       </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2841,18 +2643,15 @@
         <v>2217.8986</v>
       </c>
       <c r="G65" t="n">
-        <v>507882.5444073699</v>
-      </c>
-      <c r="H65" t="n">
         <v>2</v>
       </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2874,18 +2673,15 @@
         <v>24474.8824</v>
       </c>
       <c r="G66" t="n">
-        <v>483407.6620073699</v>
-      </c>
-      <c r="H66" t="n">
         <v>2</v>
       </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2907,18 +2703,15 @@
         <v>5165.6167</v>
       </c>
       <c r="G67" t="n">
-        <v>478242.0453073698</v>
-      </c>
-      <c r="H67" t="n">
         <v>2</v>
       </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2940,18 +2733,15 @@
         <v>24145.8227</v>
       </c>
       <c r="G68" t="n">
-        <v>502387.8680073699</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2973,18 +2763,15 @@
         <v>69133.9396</v>
       </c>
       <c r="G69" t="n">
-        <v>502387.8680073699</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3006,18 +2793,15 @@
         <v>70442.53109999999</v>
       </c>
       <c r="G70" t="n">
-        <v>431945.3369073699</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3039,18 +2823,15 @@
         <v>14637.9724</v>
       </c>
       <c r="G71" t="n">
-        <v>446583.3093073699</v>
-      </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3072,18 +2853,15 @@
         <v>1621.9409</v>
       </c>
       <c r="G72" t="n">
-        <v>444961.3684073699</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3105,18 +2883,15 @@
         <v>5344.7822</v>
       </c>
       <c r="G73" t="n">
-        <v>450306.15060737</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3138,18 +2913,15 @@
         <v>10282.4966</v>
       </c>
       <c r="G74" t="n">
-        <v>440023.6540073699</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3171,18 +2943,15 @@
         <v>7232</v>
       </c>
       <c r="G75" t="n">
-        <v>447255.6540073699</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3204,18 +2973,15 @@
         <v>8600.3853</v>
       </c>
       <c r="G76" t="n">
-        <v>438655.2687073699</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3237,18 +3003,15 @@
         <v>4779.4338</v>
       </c>
       <c r="G77" t="n">
-        <v>443434.7025073699</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3270,18 +3033,15 @@
         <v>10441.7105</v>
       </c>
       <c r="G78" t="n">
-        <v>432992.9920073699</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3303,18 +3063,15 @@
         <v>15153.6256</v>
       </c>
       <c r="G79" t="n">
-        <v>448146.6176073699</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3336,18 +3093,15 @@
         <v>12990.9674</v>
       </c>
       <c r="G80" t="n">
-        <v>435155.6502073699</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3369,18 +3123,15 @@
         <v>7283.2293</v>
       </c>
       <c r="G81" t="n">
-        <v>427872.4209073699</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3402,18 +3153,15 @@
         <v>7800.6752</v>
       </c>
       <c r="G82" t="n">
-        <v>420071.7457073699</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3435,18 +3183,15 @@
         <v>1103.2461</v>
       </c>
       <c r="G83" t="n">
-        <v>421174.9918073699</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3468,18 +3213,15 @@
         <v>684.111</v>
       </c>
       <c r="G84" t="n">
-        <v>420490.8808073699</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3501,18 +3243,15 @@
         <v>5000</v>
       </c>
       <c r="G85" t="n">
-        <v>415490.8808073699</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3534,18 +3273,15 @@
         <v>20</v>
       </c>
       <c r="G86" t="n">
-        <v>415510.8808073699</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3567,18 +3303,15 @@
         <v>5725.3476</v>
       </c>
       <c r="G87" t="n">
-        <v>409785.5332073699</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3600,18 +3333,15 @@
         <v>1089.8981</v>
       </c>
       <c r="G88" t="n">
-        <v>410875.4313073699</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3633,18 +3363,15 @@
         <v>754.625</v>
       </c>
       <c r="G89" t="n">
-        <v>410120.8063073699</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3666,18 +3393,15 @@
         <v>38739.5006</v>
       </c>
       <c r="G90" t="n">
-        <v>448860.3069073699</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3699,18 +3423,15 @@
         <v>1133.5351</v>
       </c>
       <c r="G91" t="n">
-        <v>448860.3069073699</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3732,18 +3453,15 @@
         <v>1720.1545</v>
       </c>
       <c r="G92" t="n">
-        <v>448860.3069073699</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3765,18 +3483,15 @@
         <v>62.9769</v>
       </c>
       <c r="G93" t="n">
-        <v>448797.3300073699</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3798,18 +3513,15 @@
         <v>2003.601</v>
       </c>
       <c r="G94" t="n">
-        <v>448797.3300073699</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3831,18 +3543,15 @@
         <v>635.1905</v>
       </c>
       <c r="G95" t="n">
-        <v>448797.3300073699</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3864,18 +3573,15 @@
         <v>30</v>
       </c>
       <c r="G96" t="n">
-        <v>448797.3300073699</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3897,18 +3603,15 @@
         <v>10947.6067</v>
       </c>
       <c r="G97" t="n">
-        <v>437849.7233073699</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3930,18 +3633,15 @@
         <v>2461.8998</v>
       </c>
       <c r="G98" t="n">
-        <v>440311.6231073699</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3963,18 +3663,15 @@
         <v>1359.9342</v>
       </c>
       <c r="G99" t="n">
-        <v>441671.5573073699</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3996,18 +3693,15 @@
         <v>1351.2543</v>
       </c>
       <c r="G100" t="n">
-        <v>443022.8116073699</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4029,18 +3723,15 @@
         <v>10</v>
       </c>
       <c r="G101" t="n">
-        <v>443022.8116073699</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4062,18 +3753,15 @@
         <v>20</v>
       </c>
       <c r="G102" t="n">
-        <v>443022.8116073699</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4095,18 +3783,15 @@
         <v>11345.9082</v>
       </c>
       <c r="G103" t="n">
-        <v>443022.8116073699</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4128,18 +3813,15 @@
         <v>1500</v>
       </c>
       <c r="G104" t="n">
-        <v>444522.8116073699</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4161,18 +3843,15 @@
         <v>21500</v>
       </c>
       <c r="G105" t="n">
-        <v>444522.8116073699</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4194,18 +3873,15 @@
         <v>789.8739</v>
       </c>
       <c r="G106" t="n">
-        <v>444522.8116073699</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4227,18 +3903,15 @@
         <v>10000</v>
       </c>
       <c r="G107" t="n">
-        <v>444522.8116073699</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
